--- a/ACG/ACG/stage1.xlsx
+++ b/ACG/ACG/stage1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamGame\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,161 +99,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -609,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CU21" sqref="CS21:CU21"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6179,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -7869,37 +7715,37 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A13:CV24">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7909,6 +7755,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -8040,22 +7901,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EA6F0C-A41E-41A8-A873-698D7C32A625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8071,28 +7941,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage1.xlsx
+++ b/ACG/ACG/stage1.xlsx
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP20" sqref="AP20"/>
+    <sheetView tabSelected="1" topLeftCell="BS4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CH15" sqref="CH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="CH15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CI15" s="1">
         <v>0</v>
@@ -7761,15 +7761,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -7901,6 +7892,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
   <ds:schemaRefs>
@@ -7918,14 +7918,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EA6F0C-A41E-41A8-A873-698D7C32A625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7941,4 +7933,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage1.xlsx
+++ b/ACG/ACG/stage1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\GitHub\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CH15" sqref="CH15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7188,13 +7188,13 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
         <v>9</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -7755,9 +7755,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7893,26 +7896,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7936,9 +7928,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage1.xlsx
+++ b/ACG/ACG/stage1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\GitHub\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" topLeftCell="BG4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CG16" sqref="CG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="CG15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CH15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CI15" s="1">
         <v>0</v>
@@ -7755,12 +7755,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7896,15 +7893,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7928,17 +7936,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage1.xlsx
+++ b/ACG/ACG/stage1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム企画書関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9555" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -85,14 +79,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CG16" sqref="CG16"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7188,13 +7179,13 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -7250,11 +7241,11 @@
       <c r="AU23" s="1">
         <v>0</v>
       </c>
-      <c r="AV23" s="2">
+      <c r="AV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="1">
         <v>14</v>
-      </c>
-      <c r="AW23" s="1">
-        <v>0</v>
       </c>
       <c r="AX23" s="1">
         <v>0</v>
@@ -7559,7 +7550,7 @@
         <v>2</v>
       </c>
       <c r="AX24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY24" s="1">
         <v>0</v>
@@ -7568,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="1">
         <v>2</v>
@@ -7601,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="BL24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM24" s="1">
         <v>2</v>
@@ -7755,12 +7746,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -7892,32 +7892,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EA6F0C-A41E-41A8-A873-698D7C32A625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7933,12 +7932,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage1.xlsx
+++ b/ACG/ACG/stage1.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CI16" sqref="CI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="CI16" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="CJ16" s="1">
         <v>0</v>
